--- a/django_backend/var/sys/screen/core/UsrMnt.xlsx
+++ b/django_backend/var/sys/screen/core/UsrMnt.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -40,12 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="205">
   <si>
     <t>Do not modify this column</t>
   </si>
   <si>
-    <t>Screen Definition - v2</t>
+    <t>Screen Definition - v3</t>
   </si>
   <si>
     <t>viewAPIRev</t>
@@ -336,21 +337,18 @@
     <t>dtToolbar</t>
   </si>
   <si>
-    <t>Data type, Data Length, Required should come from model</t>
-  </si>
-  <si>
     <t>Python Name</t>
   </si>
   <si>
     <t>( blank / no  )</t>
   </si>
   <si>
+    <t>( yes/ no/ blank )</t>
+  </si>
+  <si>
     <t>e.g. textbox</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>fieldTable</t>
   </si>
   <si>
@@ -366,6 +364,12 @@
     <t>Hidden</t>
   </si>
   <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
     <t>Widget</t>
   </si>
   <si>
@@ -375,12 +379,6 @@
     <t>Field</t>
   </si>
   <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
     <t>Event Handler</t>
   </si>
   <si>
@@ -508,6 +506,9 @@
   </si>
   <si>
     <t>Password (Require)</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>Password</t>
@@ -655,7 +656,7 @@
     <t>One tailor made javascript for each layout</t>
   </si>
   <si>
-    <t>20240228094325</t>
+    <t>20240417151922</t>
   </si>
 </sst>
 </file>
@@ -756,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -777,43 +778,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -840,11 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,17 +825,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -886,18 +840,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -915,6 +863,54 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1314450" y="1314450"/>
+          <a:ext cx="4772025" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,7 +1199,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -1211,1442 +1207,1445 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="16.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="10" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="10" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="8"/>
+      <c r="A2" s="6"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="A15" s="6"/>
+      <c r="I15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="8"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="6"/>
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="8"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="6"/>
+      <c r="C18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="6"/>
+      <c r="C22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="8"/>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="6"/>
+      <c r="D24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="8"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
+      <c r="A25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="9"/>
+      <c r="M25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="S25" s="11" t="s">
+      <c r="N25" s="9"/>
+      <c r="S25" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="3"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11">
         <v>4</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14" t="s">
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14" t="s">
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14" t="s">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="11">
         <v>10</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14" t="s">
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="K35" s="11"/>
-      <c r="L35" s="15" t="s">
+      <c r="K35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="13" t="s">
+      <c r="I36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="J36" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="23" t="s">
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M36" s="22"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="B38" s="1"/>
+      <c r="C38" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="C41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="C43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="C48" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="3:16">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="3:16">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="3:16">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="3:16">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="3:16">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="3:16">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="3:16">
+      <c r="C55" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="3:16">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="3:16">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="3:16">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="3:16">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="3:16">
+      <c r="C61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="C67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="D71" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="C73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P37" s="5" t="s">
+      <c r="E77" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="B38" s="3"/>
-      <c r="C38" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="C41" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="C42" s="14"/>
-      <c r="D42" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="C43" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="C44" s="14"/>
-      <c r="D44" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="C45" s="14"/>
-      <c r="D45" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="C46" s="14"/>
-      <c r="D46" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="C47" s="14"/>
-      <c r="D47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="C48" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-    </row>
-    <row r="49" spans="3:16">
-      <c r="C49" s="14"/>
-      <c r="D49" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-    </row>
-    <row r="50" spans="3:16">
-      <c r="C50" s="14"/>
-      <c r="D50" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-    </row>
-    <row r="51" spans="3:16">
-      <c r="C51" s="14"/>
-      <c r="D51" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-    </row>
-    <row r="52" spans="3:16">
-      <c r="C52" s="14"/>
-      <c r="D52" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-    </row>
-    <row r="53" spans="3:16">
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-    </row>
-    <row r="54" spans="3:16">
-      <c r="C54" s="14"/>
-      <c r="D54" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-    </row>
-    <row r="55" spans="3:16">
-      <c r="C55" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-    </row>
-    <row r="56" spans="3:16">
-      <c r="C56" s="14"/>
-      <c r="D56" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-    </row>
-    <row r="57" spans="3:16">
-      <c r="C57" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J57" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-    </row>
-    <row r="58" spans="3:16">
-      <c r="C58" s="14"/>
-      <c r="D58" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-    </row>
-    <row r="59" spans="3:16">
-      <c r="C59" s="14"/>
-      <c r="D59" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-    </row>
-    <row r="60" spans="3:16">
-      <c r="C60" s="14"/>
-      <c r="D60" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-    </row>
-    <row r="61" spans="3:16">
-      <c r="C61" s="7" t="s">
+      <c r="K77" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="K78" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="C79" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="C67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="C73" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="B76" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="F77" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="K78" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="C79" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="H80" s="10"/>
+      <c r="H80" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2679,14 +2678,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2702,5 +2701,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>